--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Summary</t>
   </si>
@@ -87,48 +87,6 @@
   </si>
   <si>
     <t>Date Returned [TE]</t>
-  </si>
-  <si>
-    <t>Ugochukwu</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>GLH-FRI290319RLOW</t>
-  </si>
-  <si>
-    <t>Sermon</t>
-  </si>
-  <si>
-    <t>Ts</t>
-  </si>
-  <si>
-    <t>GLH-SUN170319RHIGH</t>
-  </si>
-  <si>
-    <t>TEs</t>
-  </si>
-  <si>
-    <t>4.3 GLH-SUN130119-THE ROAD TO THE DOMINION [C]</t>
-  </si>
-  <si>
-    <t>GLH-FRI220319RHIGH</t>
-  </si>
-  <si>
-    <t>GLH-SAT220717R2</t>
-  </si>
-  <si>
-    <t>GLH-SUN240319RLOW</t>
-  </si>
-  <si>
-    <t>GLH-TUE130819 - 02</t>
-  </si>
-  <si>
-    <t>GLH-WED140819 - 02</t>
-  </si>
-  <si>
-    <t>GLH-TUE250717R-CHRISTIAN DRESSING</t>
   </si>
 </sst>
 </file>
@@ -323,8 +281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyTable" displayName="MyTable" ref="A1:K10">
-  <autoFilter ref="A1:K10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyTable" displayName="MyTable" ref="A1:K161">
+  <autoFilter ref="A1:K161"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Collator" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Transcriber"/>
@@ -608,7 +566,7 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,65 +585,49 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
-        <v>9</v>
-      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
@@ -720,10 +662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,321 +718,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>44300.475205706018</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="12">
-        <v>44300.476449016205</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="12">
-        <v>44300.475205706018</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12">
-        <v>44300.496229305558</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12">
-        <v>44300.496160983792</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="12">
-        <v>44300.496160983792</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="13">
-        <v>500</v>
-      </c>
-      <c r="G10" s="13">
-        <v>568</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -68,18 +68,9 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
     <t>Size (MB)</t>
   </si>
   <si>
-    <t>Duration (Mins)</t>
-  </si>
-  <si>
-    <t>Date Returned</t>
-  </si>
-  <si>
     <t>Transcript Editor</t>
   </si>
   <si>
@@ -87,6 +78,15 @@
   </si>
   <si>
     <t>Date Returned [TE]</t>
+  </si>
+  <si>
+    <t>Date Returned [T]</t>
+  </si>
+  <si>
+    <t>Date Issued [T]</t>
+  </si>
+  <si>
+    <t>Duration (Secs)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -247,9 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -288,10 +285,10 @@
     <tableColumn id="2" name="Transcriber"/>
     <tableColumn id="3" name="File Name"/>
     <tableColumn id="4" name="Category"/>
-    <tableColumn id="5" name="Date Issued"/>
+    <tableColumn id="5" name="Date Issued [T]"/>
     <tableColumn id="6" name="Size (MB)"/>
-    <tableColumn id="7" name="Duration (Mins)"/>
-    <tableColumn id="8" name="Date Returned"/>
+    <tableColumn id="7" name="Duration (Secs)"/>
+    <tableColumn id="8" name="Date Returned [T]"/>
     <tableColumn id="9" name="Transcript Editor"/>
     <tableColumn id="10" name="Date Issued [TE]"/>
     <tableColumn id="11" name="Date Returned [TE]"/>
@@ -576,10 +573,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -665,7 +662,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +674,10 @@
     <col min="5" max="5" width="11.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="12" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,26 +693,26 @@
       <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -86,7 +86,7 @@
     <t>Date Issued [T]</t>
   </si>
   <si>
-    <t>Duration (Secs)</t>
+    <t>Duration (Min)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -259,6 +259,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyTable" displayName="MyTable" ref="A1:K161">
-  <autoFilter ref="A1:K161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyTable" displayName="MyTable" ref="A1:K4">
+  <autoFilter ref="A1:K4"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Collator" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Transcriber"/>
@@ -287,7 +291,7 @@
     <tableColumn id="4" name="Category"/>
     <tableColumn id="5" name="Date Issued [T]"/>
     <tableColumn id="6" name="Size (MB)"/>
-    <tableColumn id="7" name="Duration (Secs)"/>
+    <tableColumn id="7" name="Duration (Min)"/>
     <tableColumn id="8" name="Date Returned [T]"/>
     <tableColumn id="9" name="Transcript Editor"/>
     <tableColumn id="10" name="Date Issued [TE]"/>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,25 +630,29 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -662,7 +670,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
